--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -230,7 +230,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -250,7 +250,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Device.meta.versionId</t>
@@ -279,7 +279,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースのバージョンが最後に変更されたとき」</t>
+    <t>リソースのバージョンが最後に変更されたとき</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -304,8 +304,8 @@
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -373,7 +373,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。」</t>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -535,7 +535,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
+    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO” and the system left empty.</t>
   </si>
   <si>
     <t>Device.definition</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Device.id</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Device.id</t>
@@ -347,7 +347,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Device.meta.versionId</t>
@@ -396,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
+    <t>「リソースのバージョンが最後に変更されたとき」</t>
   </si>
   <si>
     <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
@@ -415,14 +415,14 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」</t>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
   </si>
   <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+    <t>「プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。」</t>
   </si>
   <si>
     <t>Meta.source</t>
@@ -490,7 +490,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+    <t>「様々なタグを表すコードで、一般的にはワークフローに関連しています。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
@@ -652,7 +652,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO” and the system left empty.</t>
+    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
   </si>
   <si>
     <t>Device.definition</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -438,7 +438,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -681,7 +681,7 @@
     <t>デバイスラベルまたはパッケージに割り当てられた一意のデバイス識別子（UDI）。デバイスには、販売されている管轄権のためのudicarrierのみが含まれているか、販売されていた可能性のある複数の管轄区域のために、複数のudicarriersが含まれる場合があることに注意してください。 / Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>

--- a/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-JP-Device.xlsx
@@ -373,7 +373,7 @@
     <t>Device.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t xml:space="preserve">バージョン固有の識別子 </t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -415,7 +415,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
